--- a/Queries/test.xlsx
+++ b/Queries/test.xlsx
@@ -367,791 +367,638 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>JJ MatCodes</t>
         </is>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>P60125</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>P63025</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>P64525</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>P58595</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>P28425</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>P30895</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>P32825</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>P33724</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>P72125</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>P23925</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>P22907</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>P23025</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>P21195</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>P02724</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>D17385</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>4CP60101</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>4CP30801</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>4OP63001</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>4CD50101</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>4DP02701</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>4CP21101</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>4OP23001</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>2AP027</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>2AP211</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>2AP229</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>2AP308</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>2AP308SLI</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>2AP328</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>2AP337</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>2AP585</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>2BA585SLI</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>2BP308SLI</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>2BP601</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>2BP721</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>2OP230</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>2OP239</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>2OP308</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>2OP630</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>2OP645</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>5AP027TY</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>5AP21195</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>5AP229TY</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>6AP22907</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>6AP23025</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>6AP23925</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>6AP30895</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>6AP32825</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>6AP58595</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>6AP63025</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>6AP64525</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>6BP21195</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>6BP28425</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>6BP30895</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>6BP72125</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>6CP02724</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>6CP33724</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>6CP60125</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>6OP027LP</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>8AP02700RF</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>8AP21100</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>8AP21100A</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>8AP32800</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>8AP33700</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>8AP60100</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>8AP60100RF</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>8AP72100</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>8BP28400</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>8OP23000RF</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>8OP23900RF</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>8OP57200RF</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>8OP63000RF</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>8OP64500</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>8OP64500RF</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>2AD173</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>2AP284</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>6BD17385</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>7G4OP601</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>7J4OP485</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
